--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3714.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3714.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.350572761025103</v>
+        <v>1.663404822349548</v>
       </c>
       <c r="B1">
-        <v>2.839390078475657</v>
+        <v>4.022072792053223</v>
       </c>
       <c r="C1">
-        <v>6.699687079347663</v>
+        <v>3.408957004547119</v>
       </c>
       <c r="D1">
-        <v>1.983492118511166</v>
+        <v>1.550602078437805</v>
       </c>
       <c r="E1">
-        <v>1.032602007610725</v>
+        <v>0.8689704537391663</v>
       </c>
     </row>
   </sheetData>
